--- a/coding/data/0_產業_學院配對_刪除其他None存託憑證.xlsx
+++ b/coding/data/0_產業_學院配對_刪除其他None存託憑證.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\NTU\graduated\研究室\論文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\NTU\graduate\研究室\論文\coding\ntuFinance\coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
   </bookViews>
   <sheets>
     <sheet name="TSE新產業名_學院配對" sheetId="1" r:id="rId1"/>
@@ -125,277 +125,278 @@
     <t>M9700 油電燃氣業</t>
   </si>
   <si>
+    <t>工學院</t>
+  </si>
+  <si>
+    <t>管理學院</t>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文全名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chief executive officer</t>
+  </si>
+  <si>
+    <t>執行長</t>
+  </si>
+  <si>
+    <t>專業學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Chief Finance Officer</t>
+  </si>
+  <si>
+    <t>財務長</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>Chief Operation Officer</t>
+  </si>
+  <si>
+    <t>首席營運官</t>
+  </si>
+  <si>
+    <t>CIO</t>
+  </si>
+  <si>
+    <t>Chief Information Officer</t>
+  </si>
+  <si>
+    <t>首席信息官</t>
+  </si>
+  <si>
+    <t>主要工作內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責公司企業的日常運作並向CEO報告的二把手</t>
+  </si>
+  <si>
+    <t>CEO既是行政一把手，又是股東權益代言人</t>
+  </si>
+  <si>
+    <t>企業財務總監</t>
+  </si>
+  <si>
+    <t>負責制訂公司信息化的政策與標準，並確定實施程序與方法，統一領導企業內部信息系統建設，制定總體規劃，並協調各部門之間的關係，保證信息流通暢通</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>Chief Technology Officer</t>
+  </si>
+  <si>
+    <t>首席技術官</t>
+  </si>
+  <si>
+    <t>企業內負責技術的最高負責人</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>Chief HumanResource Officer</t>
+  </si>
+  <si>
+    <t>首席人事官</t>
+  </si>
+  <si>
+    <t>招聘、培訓員工；考核員工業績；協調員工關係；為員工提供職業規劃</t>
+  </si>
+  <si>
+    <t>CKO</t>
+  </si>
+  <si>
+    <t>Chief Knowledge Officer</t>
+  </si>
+  <si>
+    <t>首席知識官</t>
+  </si>
+  <si>
+    <t>結合企業的業務發展戰略，率領企業找到知識管理的願景和目標；正確定義好企業的知識體系並進行系統地表達；推動建立合適的IT系統工具以保障「知識之輪」的運轉；將知識管理的流程與業務流程緊密融合為一體；建立合適的知識管理考核與激勵機制；營造適合知識管理的信任、共享、創新的文化氛圍。</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>Chief Marketing Officer</t>
+  </si>
+  <si>
+    <t>首席市場官</t>
+  </si>
+  <si>
+    <t>企業中負責市場運營工作的高級管理人員，也可稱市場總監、主營市場的副總經理或副總裁等。主要負責在企業中對營銷思想進行定位；把握市場機會，制定市場營銷戰略和實施計劃，完成企業的營銷目標；協調企業內外部關係，對企業市場營銷戰略計劃的執行進行監督和控制；負責企業營銷組織建設與激勵工作。</t>
+  </si>
+  <si>
+    <t>管理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>電機資訊學院</t>
-  </si>
-  <si>
-    <t>工學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理學院</t>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文全名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文翻譯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chief executive officer</t>
-  </si>
-  <si>
-    <t>執行長</t>
-  </si>
-  <si>
-    <t>專業學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFO</t>
-  </si>
-  <si>
-    <t>Chief Finance Officer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各產業專業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各產業專業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨立董事所需專業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配對學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工學院|生命科學院|農學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工學院|理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電機資訊學院|工學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電機資訊學院|工學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工學院|理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫學院|生命科學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電機資訊學院|工學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文學院|管理學院|社會科學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農學院|生命科學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSE新產業別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工學院|理學院|藝術設計學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總經理|執行長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>財務長</t>
-  </si>
-  <si>
-    <t>COO</t>
-  </si>
-  <si>
-    <t>Chief Operation Officer</t>
-  </si>
-  <si>
-    <t>首席營運官</t>
-  </si>
-  <si>
-    <t>CIO</t>
-  </si>
-  <si>
-    <t>Chief Information Officer</t>
-  </si>
-  <si>
-    <t>首席信息官</t>
-  </si>
-  <si>
-    <t>主要工作內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>負責公司企業的日常運作並向CEO報告的二把手</t>
-  </si>
-  <si>
-    <t>CEO既是行政一把手，又是股東權益代言人</t>
-  </si>
-  <si>
-    <t>企業財務總監</t>
-  </si>
-  <si>
-    <t>負責制訂公司信息化的政策與標準，並確定實施程序與方法，統一領導企業內部信息系統建設，制定總體規劃，並協調各部門之間的關係，保證信息流通暢通</t>
-  </si>
-  <si>
-    <t>CTO</t>
-  </si>
-  <si>
-    <t>Chief Technology Officer</t>
-  </si>
-  <si>
-    <t>首席技術官</t>
-  </si>
-  <si>
-    <t>企業內負責技術的最高負責人</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>Chief HumanResource Officer</t>
-  </si>
-  <si>
-    <t>首席人事官</t>
-  </si>
-  <si>
-    <t>招聘、培訓員工；考核員工業績；協調員工關係；為員工提供職業規劃</t>
-  </si>
-  <si>
-    <t>CKO</t>
-  </si>
-  <si>
-    <t>Chief Knowledge Officer</t>
-  </si>
-  <si>
-    <t>首席知識官</t>
-  </si>
-  <si>
-    <t>結合企業的業務發展戰略，率領企業找到知識管理的願景和目標；正確定義好企業的知識體系並進行系統地表達；推動建立合適的IT系統工具以保障「知識之輪」的運轉；將知識管理的流程與業務流程緊密融合為一體；建立合適的知識管理考核與激勵機制；營造適合知識管理的信任、共享、創新的文化氛圍。</t>
-  </si>
-  <si>
-    <t>CMO</t>
-  </si>
-  <si>
-    <t>Chief Marketing Officer</t>
-  </si>
-  <si>
-    <t>首席市場官</t>
-  </si>
-  <si>
-    <t>企業中負責市場運營工作的高級管理人員，也可稱市場總監、主營市場的副總經理或副總裁等。主要負責在企業中對營銷思想進行定位；把握市場機會，制定市場營銷戰略和實施計劃，完成企業的營銷目標；協調企業內外部關係，對企業市場營銷戰略計劃的執行進行監督和控制；負責企業營銷組織建設與激勵工作。</t>
-  </si>
-  <si>
-    <t>管理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電機資訊學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各產業專業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各產業專業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獨立董事所需專業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>財務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配對學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工學院|生命科學院|農學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工學院|理學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營運長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法尊長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技術長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資安長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>電機資訊學院|工學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電機資訊學院|工學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工學院|理學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫學院|生命科學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電機資訊學院|工學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文學院|管理學院|社會科學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農學院|生命科學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSE新產業別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工學院|理學院|藝術設計學院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總經理|執行長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>財務長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>營運長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法尊長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技術長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資訊長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資安長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風險長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法務長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -824,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -835,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -843,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -851,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -859,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -867,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -875,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -883,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -891,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -899,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -907,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -915,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -923,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -931,31 +932,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
+      <c r="B15" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
+      <c r="B16" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
+      <c r="B17" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -963,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -971,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -979,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -987,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -995,7 +996,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -1003,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -1011,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -1019,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -1027,7 +1028,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -1035,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -1043,7 +1044,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -1051,7 +1052,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -1059,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -1067,7 +1068,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1092,52 +1093,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1165,184 +1166,184 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1368,34 +1369,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
